--- a/Documents/Diagrams/v5.0/Spårningsmatris.xlsx
+++ b/Documents/Diagrams/v5.0/Spårningsmatris.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
   <si>
     <t>Icke-funktionella krav</t>
   </si>
@@ -320,24 +320,17 @@
     <t>FK-A-I-4</t>
   </si>
   <si>
-    <t>Krav ID            /             Testfall</t>
+    <t>Krav ID          /           Testfall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -354,6 +347,27 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -403,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -538,47 +552,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE102"/>
+  <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -896,7 +942,7 @@
     <col min="31" max="31" width="4.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>98</v>
       </c>
@@ -954,50 +1000,19 @@
       <c r="S1" s="13">
         <v>18</v>
       </c>
-      <c r="T1" s="13">
+      <c r="T1" s="30">
         <v>19</v>
       </c>
-      <c r="U1" s="13">
-        <v>20</v>
-      </c>
-      <c r="V1" s="13">
-        <v>21</v>
-      </c>
-      <c r="W1" s="13">
-        <v>22</v>
-      </c>
-      <c r="X1" s="13">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="13">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="13">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="13">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="13">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="13">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="13">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="U1" s="19"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" s="15"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="T2" s="21"/>
+      <c r="U2" s="19"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1019,87 +1034,90 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="16"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="T3" s="22"/>
+      <c r="U3" s="19"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AE4" s="15"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Q4" s="14"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="19"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="19"/>
-      <c r="AE5" s="15"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="R5" s="14"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="19"/>
-      <c r="AE6" s="15"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="R6" s="14"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="19"/>
-      <c r="AE7" s="15"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Q7" s="14"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="19"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="19"/>
-      <c r="AE8" s="15"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Q8" s="14"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="19"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="AE9" s="15"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="19"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="19"/>
-      <c r="AE10" s="15"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="Q10" s="14"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="19"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AE11" s="15"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="Q11" s="14"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="19"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AE12" s="15"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="Q12" s="14"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="19"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AE13" s="15"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="T13" s="24"/>
+      <c r="U13" s="19"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1121,38 +1139,35 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="16"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="T14" s="22"/>
+      <c r="U14" s="19"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AE15" s="15"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
+      <c r="P15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="19"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AE16" s="15"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
+      <c r="T16" s="24"/>
+      <c r="U16" s="19"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AE17" s="15"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="P17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="19"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1174,823 +1189,1070 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="17"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
+      <c r="T18" s="25"/>
+      <c r="U18" s="19"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="15"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
+      <c r="T19" s="23"/>
+      <c r="U19" s="19"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AE20" s="15"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="R20" s="14"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="19"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>2</v>
+      </c>
+      <c r="D21" s="13">
+        <v>3</v>
+      </c>
+      <c r="E21" s="13">
+        <v>4</v>
+      </c>
+      <c r="F21" s="13">
+        <v>5</v>
+      </c>
+      <c r="G21" s="13">
+        <v>6</v>
+      </c>
+      <c r="H21" s="13">
+        <v>7</v>
+      </c>
+      <c r="I21" s="13">
+        <v>8</v>
+      </c>
+      <c r="J21" s="13">
+        <v>9</v>
+      </c>
+      <c r="K21" s="13">
+        <v>10</v>
+      </c>
+      <c r="L21" s="13">
+        <v>11</v>
+      </c>
+      <c r="M21" s="13">
+        <v>12</v>
+      </c>
+      <c r="N21" s="13">
+        <v>13</v>
+      </c>
+      <c r="O21" s="13">
+        <v>14</v>
+      </c>
+      <c r="P21" s="13">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>16</v>
+      </c>
+      <c r="R21" s="13">
+        <v>17</v>
+      </c>
+      <c r="S21" s="13">
+        <v>18</v>
+      </c>
+      <c r="T21" s="30">
         <v>19</v>
       </c>
-      <c r="AE21" s="15"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="U21" s="19"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="19"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AE22" s="15"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="19"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="16"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="19"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="AE24" s="15"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="14"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="19"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="AE25" s="15"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="D26" s="14"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="19"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="AE26" s="15"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="E27" s="14"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="19"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="AE27" s="15"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="14"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="19"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="AE28" s="15"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="F29" s="14"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="19"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O29" s="19"/>
-      <c r="AE29" s="15"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="O30" s="14"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="19"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="19"/>
-      <c r="AE30" s="15"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="O31" s="14"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="19"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="AE31" s="15"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="14"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="19"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="AE32" s="15"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="G33" s="14"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="19"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="AE33" s="15"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="H34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="19"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="AE34" s="15"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="G35" s="14"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="19"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="AE35" s="15"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="G36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="19"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="AE36" s="15"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="G37" s="14"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="19"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="AE37" s="15"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="G38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="19"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="AE38" s="15"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="G39" s="14"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="19"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="AE39" s="15"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="H40" s="14"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="19"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="19"/>
-      <c r="AE40" s="15"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="G41" s="14"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="19"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="AE41" s="15"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="H42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="19"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="19"/>
-      <c r="AE42" s="15"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+      <c r="G43" s="14"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="19"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="AE43" s="15"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="H44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="19"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="19"/>
-      <c r="AE44" s="15"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+      <c r="I45" s="14"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="19"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O45" s="19"/>
-      <c r="AE45" s="15"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="O46" s="14"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="19"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="AE46" s="15"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+      <c r="G47" s="14"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="19"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="AE47" s="15"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="G48" s="14"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="19"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G48" s="19"/>
-      <c r="AE48" s="15"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="G49" s="14"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="19"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="AE49" s="15"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+      <c r="H50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="19"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="AE50" s="15"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="H51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="19"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="AE51" s="15"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="H52" s="14"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="19"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K52" s="19"/>
-      <c r="AE52" s="15"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="K53" s="14"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="19"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="AE53" s="15"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+      <c r="I54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="19"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K54" s="19"/>
-      <c r="AE54" s="15"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="K55" s="14"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="19"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K55" s="19"/>
-      <c r="AE55" s="15"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+      <c r="K56" s="14"/>
+      <c r="T56" s="23"/>
+      <c r="U56" s="19"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K56" s="19"/>
-      <c r="AE56" s="15"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+      <c r="K57" s="14"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="19"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K57" s="19"/>
-      <c r="AE57" s="15"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="K58" s="14"/>
+      <c r="T58" s="23"/>
+      <c r="U58" s="19"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K58" s="19"/>
-      <c r="AE58" s="15"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+      <c r="K59" s="14"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="19"/>
+    </row>
+    <row r="60" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K59" s="19"/>
-      <c r="AE59" s="15"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A60" s="6" t="s">
+      <c r="K60" s="14"/>
+      <c r="T60" s="23"/>
+      <c r="U60" s="19"/>
+    </row>
+    <row r="61" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="12">
         <v>1</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="7"/>
-      <c r="AA60" s="7"/>
-      <c r="AB60" s="7"/>
-      <c r="AC60" s="7"/>
-      <c r="AD60" s="7"/>
-      <c r="AE60" s="16"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="C61" s="13">
+        <v>2</v>
+      </c>
+      <c r="D61" s="13">
+        <v>3</v>
+      </c>
+      <c r="E61" s="13">
+        <v>4</v>
+      </c>
+      <c r="F61" s="13">
+        <v>5</v>
+      </c>
+      <c r="G61" s="13">
+        <v>6</v>
+      </c>
+      <c r="H61" s="13">
+        <v>7</v>
+      </c>
+      <c r="I61" s="13">
+        <v>8</v>
+      </c>
+      <c r="J61" s="13">
+        <v>9</v>
+      </c>
+      <c r="K61" s="13">
+        <v>10</v>
+      </c>
+      <c r="L61" s="13">
+        <v>11</v>
+      </c>
+      <c r="M61" s="13">
+        <v>12</v>
+      </c>
+      <c r="N61" s="13">
+        <v>13</v>
+      </c>
+      <c r="O61" s="13">
+        <v>14</v>
+      </c>
+      <c r="P61" s="13">
+        <v>15</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>16</v>
+      </c>
+      <c r="R61" s="13">
+        <v>17</v>
+      </c>
+      <c r="S61" s="13">
+        <v>18</v>
+      </c>
+      <c r="T61" s="30">
+        <v>19</v>
+      </c>
+      <c r="U61" s="19"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A62" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="22"/>
+      <c r="U62" s="19"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P61" s="19"/>
-      <c r="AE61" s="15"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+      <c r="P63" s="14"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="19"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P62" s="19"/>
-      <c r="AE62" s="15"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="P64" s="14"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="19"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S63" s="19"/>
-      <c r="AE63" s="15"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+      <c r="S65" s="14"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="19"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S64" s="19"/>
-      <c r="AE64" s="15"/>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+      <c r="S66" s="14"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="19"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S65" s="19"/>
-      <c r="AE65" s="15"/>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+      <c r="S67" s="14"/>
+      <c r="T67" s="23"/>
+      <c r="U67" s="19"/>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S66" s="19"/>
-      <c r="AE66" s="15"/>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+      <c r="S68" s="14"/>
+      <c r="T68" s="23"/>
+      <c r="U68" s="19"/>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q67" s="19"/>
-      <c r="AE67" s="15"/>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
+      <c r="Q69" s="14"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="19"/>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A70" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
-      <c r="Z68" s="7"/>
-      <c r="AA68" s="7"/>
-      <c r="AB68" s="7"/>
-      <c r="AC68" s="7"/>
-      <c r="AD68" s="7"/>
-      <c r="AE68" s="16"/>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="22"/>
+      <c r="U70" s="19"/>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="AE69" s="15"/>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
+      <c r="H71" s="14"/>
+      <c r="T71" s="23"/>
+      <c r="U71" s="19"/>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H70" s="19"/>
-      <c r="AE70" s="15"/>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A71" s="21" t="s">
+      <c r="H72" s="14"/>
+      <c r="T72" s="23"/>
+      <c r="U72" s="19"/>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A73" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AE71" s="15"/>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
+      <c r="M73" s="14"/>
+      <c r="T73" s="23"/>
+      <c r="U73" s="19"/>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A74" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
-      <c r="W72" s="7"/>
-      <c r="X72" s="7"/>
-      <c r="Y72" s="7"/>
-      <c r="Z72" s="7"/>
-      <c r="AA72" s="7"/>
-      <c r="AB72" s="7"/>
-      <c r="AC72" s="7"/>
-      <c r="AD72" s="7"/>
-      <c r="AE72" s="16"/>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A73" s="21" t="s">
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="19"/>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A75" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="AE73" s="15"/>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A74" s="21" t="s">
+      <c r="L75" s="14"/>
+      <c r="T75" s="23"/>
+      <c r="U75" s="19"/>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A76" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AE74" s="15"/>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A75" s="21" t="s">
+      <c r="L76" s="14"/>
+      <c r="T76" s="23"/>
+      <c r="U76" s="19"/>
+      <c r="AC76" s="29"/>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A77" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AE75" s="15"/>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A76" s="21" t="s">
+      <c r="L77" s="14"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="19"/>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A78" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AE76" s="15"/>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A77" s="21" t="s">
+      <c r="J78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="19"/>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A79" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AE77" s="15"/>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A78" s="21" t="s">
+      <c r="J79" s="14"/>
+      <c r="T79" s="23"/>
+      <c r="U79" s="19"/>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A80" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="AE78" s="15"/>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A79" s="21" t="s">
+      <c r="H80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="19"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A81" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AE79" s="15"/>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A80" s="21" t="s">
+      <c r="H81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="T81" s="23"/>
+      <c r="U81" s="19"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A82" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="AE80" s="15"/>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A81" s="21" t="s">
+      <c r="J82" s="14"/>
+      <c r="T82" s="23"/>
+      <c r="U82" s="19"/>
+    </row>
+    <row r="83" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AE81" s="15"/>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
+      <c r="J83" s="14"/>
+      <c r="T83" s="23"/>
+      <c r="U83" s="19"/>
+    </row>
+    <row r="84" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="12">
+        <v>1</v>
+      </c>
+      <c r="C84" s="13">
+        <v>2</v>
+      </c>
+      <c r="D84" s="13">
+        <v>3</v>
+      </c>
+      <c r="E84" s="13">
+        <v>4</v>
+      </c>
+      <c r="F84" s="13">
+        <v>5</v>
+      </c>
+      <c r="G84" s="13">
+        <v>6</v>
+      </c>
+      <c r="H84" s="13">
+        <v>7</v>
+      </c>
+      <c r="I84" s="13">
+        <v>8</v>
+      </c>
+      <c r="J84" s="13">
+        <v>9</v>
+      </c>
+      <c r="K84" s="13">
+        <v>10</v>
+      </c>
+      <c r="L84" s="13">
+        <v>11</v>
+      </c>
+      <c r="M84" s="13">
+        <v>12</v>
+      </c>
+      <c r="N84" s="13">
+        <v>13</v>
+      </c>
+      <c r="O84" s="13">
+        <v>14</v>
+      </c>
+      <c r="P84" s="13">
+        <v>15</v>
+      </c>
+      <c r="Q84" s="13">
+        <v>16</v>
+      </c>
+      <c r="R84" s="13">
+        <v>17</v>
+      </c>
+      <c r="S84" s="13">
+        <v>18</v>
+      </c>
+      <c r="T84" s="30">
+        <v>19</v>
+      </c>
+      <c r="U84" s="19"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AE82" s="15"/>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A83" s="6" t="s">
+      <c r="T85" s="23"/>
+      <c r="U85" s="19"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A86" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
-      <c r="W83" s="7"/>
-      <c r="X83" s="7"/>
-      <c r="Y83" s="7"/>
-      <c r="Z83" s="7"/>
-      <c r="AA83" s="7"/>
-      <c r="AB83" s="7"/>
-      <c r="AC83" s="7"/>
-      <c r="AD83" s="7"/>
-      <c r="AE83" s="16"/>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="22"/>
+      <c r="U86" s="19"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J84" s="19"/>
-      <c r="AE84" s="15"/>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+      <c r="J87" s="14"/>
+      <c r="T87" s="23"/>
+      <c r="U87" s="19"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J85" s="19"/>
-      <c r="AE85" s="15"/>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
+      <c r="J88" s="14"/>
+      <c r="T88" s="23"/>
+      <c r="U88" s="19"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J86" s="19"/>
-      <c r="AE86" s="15"/>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A87" s="6" t="s">
+      <c r="J89" s="14"/>
+      <c r="T89" s="23"/>
+      <c r="U89" s="19"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A90" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="7"/>
-      <c r="U87" s="7"/>
-      <c r="V87" s="7"/>
-      <c r="W87" s="7"/>
-      <c r="X87" s="7"/>
-      <c r="Y87" s="7"/>
-      <c r="Z87" s="7"/>
-      <c r="AA87" s="7"/>
-      <c r="AB87" s="7"/>
-      <c r="AC87" s="7"/>
-      <c r="AD87" s="7"/>
-      <c r="AE87" s="16"/>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="22"/>
+      <c r="U90" s="19"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L88" s="19"/>
-      <c r="AE88" s="15"/>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+      <c r="L91" s="14"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="19"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L89" s="19"/>
-      <c r="AE89" s="15"/>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+      <c r="L92" s="14"/>
+      <c r="T92" s="23"/>
+      <c r="U92" s="19"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L90" s="19"/>
-      <c r="AE90" s="15"/>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+      <c r="L93" s="14"/>
+      <c r="T93" s="23"/>
+      <c r="U93" s="19"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L91" s="19"/>
-      <c r="AE91" s="15"/>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+      <c r="L94" s="14"/>
+      <c r="T94" s="23"/>
+      <c r="U94" s="19"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L92" s="19"/>
-      <c r="AE92" s="15"/>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+      <c r="L95" s="14"/>
+      <c r="T95" s="23"/>
+      <c r="U95" s="19"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L93" s="19"/>
-      <c r="AE93" s="15"/>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+      <c r="L96" s="14"/>
+      <c r="T96" s="23"/>
+      <c r="U96" s="19"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L94" s="19"/>
-      <c r="AE94" s="15"/>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+      <c r="L97" s="14"/>
+      <c r="T97" s="23"/>
+      <c r="U97" s="19"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L95" s="19"/>
-      <c r="AE95" s="15"/>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+      <c r="L98" s="14"/>
+      <c r="T98" s="23"/>
+      <c r="U98" s="19"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L96" s="19"/>
-      <c r="AE96" s="15"/>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+      <c r="L99" s="14"/>
+      <c r="T99" s="23"/>
+      <c r="U99" s="19"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L97" s="19"/>
-      <c r="AE97" s="15"/>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A98" s="6" t="s">
+      <c r="L100" s="14"/>
+      <c r="T100" s="23"/>
+      <c r="U100" s="19"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A101" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="7"/>
-      <c r="U98" s="7"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="7"/>
-      <c r="X98" s="7"/>
-      <c r="Y98" s="7"/>
-      <c r="Z98" s="7"/>
-      <c r="AA98" s="7"/>
-      <c r="AB98" s="7"/>
-      <c r="AC98" s="7"/>
-      <c r="AD98" s="7"/>
-      <c r="AE98" s="16"/>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="22"/>
+      <c r="U101" s="19"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M99" s="19"/>
-      <c r="AE99" s="15"/>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+      <c r="M102" s="14"/>
+      <c r="T102" s="23"/>
+      <c r="U102" s="19"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M100" s="19"/>
-      <c r="AE100" s="15"/>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+      <c r="M103" s="14"/>
+      <c r="T103" s="23"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M101" s="19"/>
-      <c r="AE101" s="15"/>
-    </row>
-    <row r="102" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="2" t="s">
+      <c r="M104" s="14"/>
+      <c r="T104" s="23"/>
+    </row>
+    <row r="105" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="20"/>
-      <c r="N102" s="9"/>
-      <c r="O102" s="9"/>
-      <c r="P102" s="9"/>
-      <c r="Q102" s="9"/>
-      <c r="R102" s="9"/>
-      <c r="S102" s="9"/>
-      <c r="T102" s="9"/>
-      <c r="U102" s="9"/>
-      <c r="V102" s="9"/>
-      <c r="W102" s="9"/>
-      <c r="X102" s="9"/>
-      <c r="Y102" s="9"/>
-      <c r="Z102" s="9"/>
-      <c r="AA102" s="9"/>
-      <c r="AB102" s="9"/>
-      <c r="AC102" s="9"/>
-      <c r="AD102" s="9"/>
-      <c r="AE102" s="18"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="28"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T106" s="20"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T107" s="19"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T108" s="19"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T109" s="19"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T110" s="19"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T111" s="19"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T112" s="19"/>
+    </row>
+    <row r="113" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T113" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Diagrams/v5.0/Spårningsmatris.xlsx
+++ b/Documents/Diagrams/v5.0/Spårningsmatris.xlsx
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB105" sqref="AB105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Documents/Diagrams/v5.0/Spårningsmatris.xlsx
+++ b/Documents/Diagrams/v5.0/Spårningsmatris.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\projectc4\Documents\Diagrams\v5.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProjects\ProjectC4\Documents\Diagrams\v5.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -907,42 +907,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB105" sqref="AB105"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="4.453125" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" customWidth="1"/>
-    <col min="4" max="4" width="4.08984375" customWidth="1"/>
-    <col min="5" max="5" width="4.1796875" customWidth="1"/>
-    <col min="6" max="6" width="4.26953125" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" customWidth="1"/>
-    <col min="8" max="8" width="4.36328125" customWidth="1"/>
-    <col min="9" max="9" width="4.26953125" customWidth="1"/>
-    <col min="10" max="11" width="4.1796875" customWidth="1"/>
-    <col min="12" max="13" width="4.453125" customWidth="1"/>
-    <col min="14" max="15" width="4.54296875" customWidth="1"/>
-    <col min="16" max="17" width="4.453125" customWidth="1"/>
-    <col min="18" max="18" width="4.54296875" customWidth="1"/>
-    <col min="19" max="19" width="4.36328125" customWidth="1"/>
-    <col min="20" max="20" width="4.453125" customWidth="1"/>
-    <col min="21" max="21" width="4.6328125" customWidth="1"/>
-    <col min="22" max="22" width="4.54296875" customWidth="1"/>
-    <col min="23" max="23" width="4.36328125" customWidth="1"/>
-    <col min="24" max="24" width="4.6328125" customWidth="1"/>
-    <col min="25" max="25" width="4.7265625" customWidth="1"/>
-    <col min="26" max="26" width="4.36328125" customWidth="1"/>
-    <col min="27" max="27" width="4.453125" customWidth="1"/>
-    <col min="28" max="28" width="4.6328125" customWidth="1"/>
-    <col min="29" max="29" width="4.453125" customWidth="1"/>
-    <col min="30" max="30" width="4.36328125" customWidth="1"/>
-    <col min="31" max="31" width="4.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="11" width="4.140625" customWidth="1"/>
+    <col min="12" max="13" width="4.42578125" customWidth="1"/>
+    <col min="14" max="15" width="4.5703125" customWidth="1"/>
+    <col min="16" max="17" width="4.42578125" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" customWidth="1"/>
+    <col min="19" max="20" width="4.42578125" customWidth="1"/>
+    <col min="21" max="22" width="4.5703125" customWidth="1"/>
+    <col min="23" max="23" width="4.42578125" customWidth="1"/>
+    <col min="24" max="24" width="4.5703125" customWidth="1"/>
+    <col min="25" max="25" width="4.7109375" customWidth="1"/>
+    <col min="26" max="27" width="4.42578125" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" customWidth="1"/>
+    <col min="29" max="30" width="4.42578125" customWidth="1"/>
+    <col min="31" max="31" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>98</v>
       </c>
@@ -1005,14 +999,14 @@
       </c>
       <c r="U1" s="19"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="T2" s="21"/>
       <c r="U2" s="19"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1037,7 +1031,7 @@
       <c r="T3" s="22"/>
       <c r="U3" s="19"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -1045,7 +1039,7 @@
       <c r="T4" s="23"/>
       <c r="U4" s="19"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1053,7 +1047,7 @@
       <c r="T5" s="23"/>
       <c r="U5" s="19"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1061,7 +1055,7 @@
       <c r="T6" s="23"/>
       <c r="U6" s="19"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1069,7 +1063,7 @@
       <c r="T7" s="23"/>
       <c r="U7" s="19"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1077,7 +1071,7 @@
       <c r="T8" s="23"/>
       <c r="U8" s="19"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1086,7 +1080,7 @@
       <c r="T9" s="23"/>
       <c r="U9" s="19"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1094,7 +1088,7 @@
       <c r="T10" s="23"/>
       <c r="U10" s="19"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -1102,7 +1096,7 @@
       <c r="T11" s="23"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
@@ -1110,14 +1104,14 @@
       <c r="T12" s="23"/>
       <c r="U12" s="19"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="T13" s="24"/>
       <c r="U13" s="19"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1142,7 +1136,7 @@
       <c r="T14" s="22"/>
       <c r="U14" s="19"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
@@ -1151,14 +1145,14 @@
       <c r="T15" s="23"/>
       <c r="U15" s="19"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
       <c r="T16" s="24"/>
       <c r="U16" s="19"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -1167,7 +1161,7 @@
       <c r="T17" s="23"/>
       <c r="U17" s="19"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1192,14 +1186,14 @@
       <c r="T18" s="25"/>
       <c r="U18" s="19"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>17</v>
       </c>
       <c r="T19" s="23"/>
       <c r="U19" s="19"/>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
@@ -1207,7 +1201,7 @@
       <c r="T20" s="23"/>
       <c r="U20" s="19"/>
     </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>98</v>
       </c>
@@ -1270,7 +1264,7 @@
       </c>
       <c r="U21" s="19"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -1295,7 +1289,7 @@
       <c r="T22" s="26"/>
       <c r="U22" s="19"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -1320,7 +1314,7 @@
       <c r="T23" s="27"/>
       <c r="U23" s="19"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
@@ -1345,7 +1339,7 @@
       <c r="T24" s="22"/>
       <c r="U24" s="19"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1353,7 +1347,7 @@
       <c r="T25" s="23"/>
       <c r="U25" s="19"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1361,7 +1355,7 @@
       <c r="T26" s="23"/>
       <c r="U26" s="19"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1369,7 +1363,7 @@
       <c r="T27" s="23"/>
       <c r="U27" s="19"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1377,7 +1371,7 @@
       <c r="T28" s="23"/>
       <c r="U28" s="19"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1385,7 +1379,7 @@
       <c r="T29" s="23"/>
       <c r="U29" s="19"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -1393,7 +1387,7 @@
       <c r="T30" s="23"/>
       <c r="U30" s="19"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1401,7 +1395,7 @@
       <c r="T31" s="23"/>
       <c r="U31" s="19"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -1409,7 +1403,7 @@
       <c r="T32" s="23"/>
       <c r="U32" s="19"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -1417,7 +1411,7 @@
       <c r="T33" s="23"/>
       <c r="U33" s="19"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -1426,7 +1420,7 @@
       <c r="T34" s="23"/>
       <c r="U34" s="19"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1434,7 +1428,7 @@
       <c r="T35" s="23"/>
       <c r="U35" s="19"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -1443,7 +1437,7 @@
       <c r="T36" s="23"/>
       <c r="U36" s="19"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -1451,24 +1445,30 @@
       <c r="T37" s="23"/>
       <c r="U37" s="19"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
       <c r="G38" s="14"/>
       <c r="P38" s="14"/>
       <c r="T38" s="23"/>
       <c r="U38" s="19"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
       <c r="G39" s="14"/>
       <c r="T39" s="23"/>
       <c r="U39" s="19"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -1476,7 +1476,7 @@
       <c r="T40" s="23"/>
       <c r="U40" s="19"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="T41" s="23"/>
       <c r="U41" s="19"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="T42" s="23"/>
       <c r="U42" s="19"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="T43" s="23"/>
       <c r="U43" s="19"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="T44" s="23"/>
       <c r="U44" s="19"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="T45" s="23"/>
       <c r="U45" s="19"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="T46" s="23"/>
       <c r="U46" s="19"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="T47" s="23"/>
       <c r="U47" s="19"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="T48" s="23"/>
       <c r="U48" s="19"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="T49" s="23"/>
       <c r="U49" s="19"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="T50" s="23"/>
       <c r="U50" s="19"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -1568,7 +1568,7 @@
       <c r="T51" s="23"/>
       <c r="U51" s="19"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="T52" s="23"/>
       <c r="U52" s="19"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="T53" s="23"/>
       <c r="U53" s="19"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -1593,7 +1593,7 @@
       <c r="T54" s="23"/>
       <c r="U54" s="19"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="T55" s="23"/>
       <c r="U55" s="19"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="T56" s="23"/>
       <c r="U56" s="19"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="T57" s="23"/>
       <c r="U57" s="19"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="T58" s="23"/>
       <c r="U58" s="19"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="T59" s="23"/>
       <c r="U59" s="19"/>
     </row>
-    <row r="60" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -1641,7 +1641,7 @@
       <c r="T60" s="23"/>
       <c r="U60" s="19"/>
     </row>
-    <row r="61" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>98</v>
       </c>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="U61" s="19"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>1</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="T62" s="22"/>
       <c r="U62" s="19"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
@@ -1737,7 +1737,7 @@
       <c r="T63" s="23"/>
       <c r="U63" s="19"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>59</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="T64" s="23"/>
       <c r="U64" s="19"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>60</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="T65" s="23"/>
       <c r="U65" s="19"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>61</v>
       </c>
@@ -1761,7 +1761,7 @@
       <c r="T66" s="23"/>
       <c r="U66" s="19"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>62</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="T67" s="23"/>
       <c r="U67" s="19"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>63</v>
       </c>
@@ -1777,7 +1777,7 @@
       <c r="T68" s="23"/>
       <c r="U68" s="19"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="T69" s="23"/>
       <c r="U69" s="19"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="T70" s="22"/>
       <c r="U70" s="19"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>65</v>
       </c>
@@ -1818,7 +1818,7 @@
       <c r="T71" s="23"/>
       <c r="U71" s="19"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="T72" s="23"/>
       <c r="U72" s="19"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>67</v>
       </c>
@@ -1834,7 +1834,7 @@
       <c r="T73" s="23"/>
       <c r="U73" s="19"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>16</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="T74" s="22"/>
       <c r="U74" s="19"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>68</v>
       </c>
@@ -1867,7 +1867,7 @@
       <c r="T75" s="23"/>
       <c r="U75" s="19"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>69</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="U76" s="19"/>
       <c r="AC76" s="29"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>70</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="T77" s="23"/>
       <c r="U77" s="19"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>71</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="T78" s="23"/>
       <c r="U78" s="19"/>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>72</v>
       </c>
@@ -1901,7 +1901,7 @@
       <c r="T79" s="23"/>
       <c r="U79" s="19"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>73</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="T80" s="23"/>
       <c r="U80" s="19"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>74</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="T81" s="23"/>
       <c r="U81" s="19"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>90</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="T82" s="23"/>
       <c r="U82" s="19"/>
     </row>
-    <row r="83" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>91</v>
       </c>
@@ -1935,7 +1935,7 @@
       <c r="T83" s="23"/>
       <c r="U83" s="19"/>
     </row>
-    <row r="84" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
         <v>98</v>
       </c>
@@ -1998,14 +1998,14 @@
       </c>
       <c r="U84" s="19"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>75</v>
       </c>
       <c r="T85" s="23"/>
       <c r="U85" s="19"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>76</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="T86" s="22"/>
       <c r="U86" s="19"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>77</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="T87" s="23"/>
       <c r="U87" s="19"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>78</v>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="T88" s="23"/>
       <c r="U88" s="19"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>79</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="T89" s="23"/>
       <c r="U89" s="19"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>80</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="T90" s="22"/>
       <c r="U90" s="19"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>81</v>
       </c>
@@ -2087,7 +2087,7 @@
       <c r="T91" s="23"/>
       <c r="U91" s="19"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>82</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="T92" s="23"/>
       <c r="U92" s="19"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>83</v>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="T93" s="23"/>
       <c r="U93" s="19"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>84</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="T94" s="23"/>
       <c r="U94" s="19"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>85</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="T95" s="23"/>
       <c r="U95" s="19"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>86</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="T96" s="23"/>
       <c r="U96" s="19"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>87</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="T97" s="23"/>
       <c r="U97" s="19"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>88</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="T98" s="23"/>
       <c r="U98" s="19"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>89</v>
       </c>
@@ -2151,7 +2151,7 @@
       <c r="T99" s="23"/>
       <c r="U99" s="19"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>92</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="T100" s="23"/>
       <c r="U100" s="19"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>93</v>
       </c>
@@ -2184,7 +2184,7 @@
       <c r="T101" s="22"/>
       <c r="U101" s="19"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>94</v>
       </c>
@@ -2192,21 +2192,21 @@
       <c r="T102" s="23"/>
       <c r="U102" s="19"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M103" s="14"/>
       <c r="T103" s="23"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>96</v>
       </c>
       <c r="M104" s="14"/>
       <c r="T104" s="23"/>
     </row>
-    <row r="105" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>97</v>
       </c>
@@ -2230,28 +2230,28 @@
       <c r="S105" s="9"/>
       <c r="T105" s="28"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T106" s="20"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T107" s="19"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T108" s="19"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T109" s="19"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T110" s="19"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T111" s="19"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T112" s="19"/>
     </row>
-    <row r="113" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="113" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T113" s="19"/>
     </row>
   </sheetData>

--- a/Documents/Diagrams/v5.0/Spårningsmatris.xlsx
+++ b/Documents/Diagrams/v5.0/Spårningsmatris.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProjects\ProjectC4\Documents\Diagrams\v5.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -266,9 +261,6 @@
     <t>FK-A-K-3</t>
   </si>
   <si>
-    <t>Regristreringskrav</t>
-  </si>
-  <si>
     <t>FK-A-R-1</t>
   </si>
   <si>
@@ -321,6 +313,9 @@
   </si>
   <si>
     <t>Krav ID          /           Testfall</t>
+  </si>
+  <si>
+    <t>Registreringskrav</t>
   </si>
 </sst>
 </file>
@@ -897,7 +892,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -907,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +933,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="12">
         <v>1</v>
@@ -1203,7 +1198,7 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="12">
         <v>1</v>
@@ -1643,7 +1638,7 @@
     </row>
     <row r="61" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B61" s="12">
         <v>1</v>
@@ -1921,7 +1916,7 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J82" s="14"/>
       <c r="T82" s="23"/>
@@ -1929,7 +1924,7 @@
     </row>
     <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J83" s="14"/>
       <c r="T83" s="23"/>
@@ -1937,7 +1932,7 @@
     </row>
     <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" s="12">
         <v>1</v>
@@ -2056,7 +2051,7 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -2081,7 +2076,7 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L91" s="14"/>
       <c r="T91" s="23"/>
@@ -2089,7 +2084,7 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L92" s="14"/>
       <c r="T92" s="23"/>
@@ -2097,7 +2092,7 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L93" s="14"/>
       <c r="T93" s="23"/>
@@ -2105,7 +2100,7 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L94" s="14"/>
       <c r="T94" s="23"/>
@@ -2113,7 +2108,7 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L95" s="14"/>
       <c r="T95" s="23"/>
@@ -2121,7 +2116,7 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L96" s="14"/>
       <c r="T96" s="23"/>
@@ -2129,7 +2124,7 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L97" s="14"/>
       <c r="T97" s="23"/>
@@ -2137,7 +2132,7 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L98" s="14"/>
       <c r="T98" s="23"/>
@@ -2145,7 +2140,7 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L99" s="14"/>
       <c r="T99" s="23"/>
@@ -2153,7 +2148,7 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L100" s="14"/>
       <c r="T100" s="23"/>
@@ -2161,7 +2156,7 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -2186,7 +2181,7 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M102" s="14"/>
       <c r="T102" s="23"/>
@@ -2194,21 +2189,21 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M103" s="14"/>
       <c r="T103" s="23"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M104" s="14"/>
       <c r="T104" s="23"/>
     </row>
     <row r="105" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="9"/>
